--- a/resources/data/aktuelles/Termine.xlsx
+++ b/resources/data/aktuelles/Termine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>Datum</t>
   </si>
@@ -62,6 +62,19 @@
   </si>
   <si>
     <t>/resources/images/date/Logos_Rot_SPD_Albstadt_vor_Ort.jpeg</t>
+  </si>
+  <si>
+    <t>Samstag, den 27. Januar 2024 um 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>Großdemonstration gegen Rechts!</t>
+  </si>
+  <si>
+    <t>Balingen Stadtmitte</t>
+  </si>
+  <si>
+    <t>Diese Großdemonstration wird gemeinsam von der Sozialdemokratischen Partei Deutschlands (SPD) und Bündnis 90/Die Grünen in Balingen organisiert. Der Anlass für diese Veranstaltung sind jüngste Enthüllungen, die zeigen, dass die Alternative für Deutschland (AfD) in ihren Geheimtreffen Pläne für eine sogenannte "Remigrationspolitik" verfolgt. Eine solche Politik zielt darauf ab, die Rückführung von Migranten in ihre Herkunftsländer zu fördern, was tiefe Besorgnis über die Grundwerte der Menschlichkeit und das Recht auf Asyl aufwirft.
+Die Demonstration stellt sich gegen Rechtsextremismus, Intoleranz und die Untergrabung demokratischer Werte. Sie soll das öffentliche Bewusstsein für die Gefahren erhöhen, die von der AfD und ähnlichen rechtsgerichteten Gruppen ausgehen. Die Organisatoren betonen die Notwendigkeit einer transparenten und verantwortungsvollen Politik, die die Werte der Demokratie, des Pluralismus und der Menschenrechte respektiert und verteidigt.</t>
   </si>
   <si>
     <t>Mittwoch, den 7 Februar 2024 um 18:00 Uhr</t>
@@ -511,20 +524,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="72.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="34.86214285714286" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="18.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="27">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="31.5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -558,7 +571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="37.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="44.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -575,7 +588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="27">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -589,35 +602,35 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="31.5">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="48">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="37.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="57">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -626,29 +639,29 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="37.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="44.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="44.25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>29</v>
@@ -657,90 +670,107 @@
         <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="37.5">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="44.25">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="37.5">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="37.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="44.25">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="37.5">
       <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="37.5">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data/aktuelles/Termine.xlsx
+++ b/resources/data/aktuelles/Termine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Datum</t>
   </si>
@@ -73,8 +73,13 @@
     <t>Balingen Stadtmitte</t>
   </si>
   <si>
-    <t>Diese Großdemonstration wird gemeinsam von der Sozialdemokratischen Partei Deutschlands (SPD) und Bündnis 90/Die Grünen in Balingen organisiert. Der Anlass für diese Veranstaltung sind jüngste Enthüllungen, die zeigen, dass die Alternative für Deutschland (AfD) in ihren Geheimtreffen Pläne für eine sogenannte "Remigrationspolitik" verfolgt. Eine solche Politik zielt darauf ab, die Rückführung von Migranten in ihre Herkunftsländer zu fördern, was tiefe Besorgnis über die Grundwerte der Menschlichkeit und das Recht auf Asyl aufwirft.
-Die Demonstration stellt sich gegen Rechtsextremismus, Intoleranz und die Untergrabung demokratischer Werte. Sie soll das öffentliche Bewusstsein für die Gefahren erhöhen, die von der AfD und ähnlichen rechtsgerichteten Gruppen ausgehen. Die Organisatoren betonen die Notwendigkeit einer transparenten und verantwortungsvollen Politik, die die Werte der Demokratie, des Pluralismus und der Menschenrechte respektiert und verteidigt.</t>
+    <t>Die Demonstration "Gegen Rechts für Demokratie" wird von der SPD Zollernalb und den Grünen Zollernalb gemeinsam organisiert. Hintergrund sind die jüngsten Recherchen von Correctiv zu den Deportationsplänen der AfD und weiteren Rechtsextremen sind ein erneuter Weckruf. Über Jahre hinweg wurde daran gearbeitet, unsere Demokratie und die in unserer Verfassung garantierten Menschenrechte zu schwächen und zu bekämpfen.
+Unter dem Motto "Braun ist Soße. Gegen Rechts. Für unsere Demokratie" steht die Demonstration im Zeichen eines breiten Bündnisses aus Unternehmen, Vereinen, Kirchen, Organisationen, Institutionen und Bündnissen im gesamten Zollernalbkreis. Es ist an der Zeit, gemeinsam ein starkes Zeichen gegen den Angriff auf unsere Werte und die Hetze von Rechtsextremen zu setzen und für eine offene und demokratische Gesellschaft einzutreten.
+Wir Demokratinnen und Demokraten müssen uns entschlossen all dem entgegenstellen.
+Nie wieder ist jetzt!</t>
+  </si>
+  <si>
+    <t>/resources/images/events/balingen.webp</t>
   </si>
   <si>
     <t>Mittwoch, den 7 Februar 2024 um 18:00 Uhr</t>
@@ -85,9 +90,6 @@
   <si>
     <t>Krone Lautlingen
 Laufener Straße 19, 72459 Albstadt-Lautlingen</t>
-  </si>
-  <si>
-    <t>Wir laden zur erweiterten Vorstandssitzung der SPD Albstadt ein. Egal, ob Sie langjähriges Mitglied sind, gerade erst beigetreten sind oder einfach nur neugierig sind – Sie sind willkommen! Die erweiterte Vorstandssitzung bietet die ideale Gelegenheit, mehr über die Arbeit der SPD Albstadt zu erfahren.</t>
   </si>
   <si>
     <t>/resources/images/date/Logos_Rot_SPD_Albstadt_Vorstandssitzung.jpeg</t>
@@ -102,6 +104,9 @@
 72461 Albstadt-Truchtelfingen</t>
   </si>
   <si>
+    <t>Die Demonstration stellt sich gegen Rechtsextremismus, Intoleranz und die Untergrabung demokratischer Werte. Sie soll das öffentliche Bewusstsein für die Gefahren erhöhen, die von der AfD und ähnlichen rechtsgerichteten Gruppen ausgehen. Wir betonen die Notwendigkeit einer transparenten und verantwortungsvollen Politik, die die Werte der Demokratie, des Pluralismus und der Menschenrechte respektiert und verteidigt.</t>
+  </si>
+  <si>
     <t>Mittwoch, den 8. Mai 2024 um 18:00</t>
   </si>
   <si>
@@ -162,6 +167,9 @@
     <t xml:space="preserve">Karl-Linder-Haus 
 Kientenstraße 70     
 72458 Albstadt  </t>
+  </si>
+  <si>
+    <t>Wir laden zur erweiterten Vorstandssitzung der SPD Albstadt ein. Egal, ob Sie langjähriges Mitglied sind, gerade erst beigetreten sind oder einfach nur neugierig sind – Sie sind willkommen! Die erweiterte Vorstandssitzung bietet die ideale Gelegenheit, mehr über die Arbeit der SPD Albstadt zu erfahren.</t>
   </si>
   <si>
     <t>Mittwoch, den 6. November 2024 um 18:00</t>
@@ -588,7 +596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="57">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -602,22 +610,20 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="31.5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
@@ -633,7 +639,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -641,13 +647,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="44.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -658,16 +664,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="44.25">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
@@ -675,45 +681,45 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="44.25">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -724,16 +730,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="44.25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
@@ -741,13 +747,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="37.5">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -758,16 +764,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="37.5">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>23</v>

--- a/resources/data/aktuelles/Termine.xlsx
+++ b/resources/data/aktuelles/Termine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>Datum</t>
   </si>
@@ -102,9 +102,6 @@
 Altes Bahnhöfle
 Raiffeisenstraße 17, 
 72461 Albstadt-Truchtelfingen</t>
-  </si>
-  <si>
-    <t>Die Demonstration stellt sich gegen Rechtsextremismus, Intoleranz und die Untergrabung demokratischer Werte. Sie soll das öffentliche Bewusstsein für die Gefahren erhöhen, die von der AfD und ähnlichen rechtsgerichteten Gruppen ausgehen. Wir betonen die Notwendigkeit einer transparenten und verantwortungsvollen Politik, die die Werte der Demokratie, des Pluralismus und der Menschenrechte respektiert und verteidigt.</t>
   </si>
   <si>
     <t>Mittwoch, den 8. Mai 2024 um 18:00</t>
@@ -545,7 +542,7 @@
     <col min="5" max="5" style="2" width="18.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="27">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -579,7 +576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="44.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="37.5">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -596,7 +593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="57">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="79.5">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -613,7 +610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="27">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -628,7 +625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="57">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="48">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -639,21 +636,21 @@
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="44.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="37.5">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -662,64 +659,64 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="44.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="37.5">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
       <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="44.25">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -730,16 +727,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="44.25">
       <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
@@ -747,13 +744,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="37.5">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -764,16 +761,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="37.5">
       <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>23</v>

--- a/resources/data/aktuelles/Termine.xlsx
+++ b/resources/data/aktuelles/Termine.xlsx
@@ -82,7 +82,7 @@
     <t>/resources/images/events/balingen.webp</t>
   </si>
   <si>
-    <t>Mittwoch, den 7 Februar 2024 um 18:00 Uhr</t>
+    <t>Mittwoch, den 7. Februar 2024 um 18:00 Uhr</t>
   </si>
   <si>
     <t>Vorstandssitzung SPD Albstadt</t>
@@ -95,7 +95,7 @@
     <t>/resources/images/date/Logos_Rot_SPD_Albstadt_Vorstandssitzung.jpeg</t>
   </si>
   <si>
-    <t>Mittwoch , den 6. März 2024 um 18:00 Uhr</t>
+    <t>Mittwoch, den 6. März 2024 um 18:00 Uhr</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -104,7 +104,7 @@
 72461 Albstadt-Truchtelfingen</t>
   </si>
   <si>
-    <t>Mittwoch, den 8. Mai 2024 um 18:00</t>
+    <t>Mittwoch, den 8. Mai 2024 um 18:00 Uhr</t>
   </si>
   <si>
     <t>Viva la Mama 
@@ -112,7 +112,7 @@
 72458 Albstadt-Ebingen</t>
   </si>
   <si>
-    <t>Mittwoch, den 5. Juni 2024 um 18:00</t>
+    <t>Mittwoch, den 5. Juni 2024 um 18:00 Uhr</t>
   </si>
   <si>
     <t>Schalksburg
@@ -123,7 +123,7 @@
     <t xml:space="preserve">Eine Woche vor der Wahl ein lockeres Treffen zum  Austauschen, Diskutieren und Kennenlernen sein. Jeder, der Zeit und Lust hat, ist herzlich eingeladen zu kommen.   Interessierten die Möglichkeit in einer netten Runde, die SPD und Ihre Mitglieder in Albstadt kennen zu lernen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Sonntag, den 9. Juni 2024 </t>
+    <t>Sonntag, den 9. Juni 2024 um xx:xx Uhr</t>
   </si>
   <si>
     <t>Kommunal- und Europawahl</t>
@@ -138,7 +138,7 @@
     <t>/resources/images/news/rathaus.webp</t>
   </si>
   <si>
-    <t>Dienstag, den 11. Juni 2024 um 19:00</t>
+    <t>Dienstag, den 11. Juni 2024 um 19:00 Uhr</t>
   </si>
   <si>
     <t>Kommunalwahlparty der SPD Albstadt</t>
@@ -147,7 +147,7 @@
     <t xml:space="preserve">An diesem Abendtreffen kommen alle zusammen, um auf die vergangenen Wochen zurückzublicken, die ganz im Zeichen der Kommunalwahl standen. </t>
   </si>
   <si>
-    <t>Mittwoch, den 11. September 2024 um 18:00</t>
+    <t>Mittwoch, den 11. September 2024 um 18:00 Uhr</t>
   </si>
   <si>
     <t>Bistro Im Hof
@@ -155,7 +155,7 @@
 72458 Albstadt-Ebingen</t>
   </si>
   <si>
-    <t>Mittwoch, den 16. Oktober 2024 um 18:00</t>
+    <t>Mittwoch, den 16. Oktober 2024 um 18:00 Uhr</t>
   </si>
   <si>
     <t>Erweiterte Vorstandssitzung der SPD Albstadt</t>
@@ -169,7 +169,7 @@
     <t>Wir laden zur erweiterten Vorstandssitzung der SPD Albstadt ein. Egal, ob Sie langjähriges Mitglied sind, gerade erst beigetreten sind oder einfach nur neugierig sind – Sie sind willkommen! Die erweiterte Vorstandssitzung bietet die ideale Gelegenheit, mehr über die Arbeit der SPD Albstadt zu erfahren.</t>
   </si>
   <si>
-    <t>Mittwoch, den 6. November 2024 um 18:00</t>
+    <t>Mittwoch, den 6. November 2024 um 18:00 Uhr</t>
   </si>
   <si>
     <t>FC Pfeffingen Clubheim
@@ -177,7 +177,7 @@
 72459 Albstadt-Pfeffingen</t>
   </si>
   <si>
-    <t>Montag, den 18. November 2024 um 18:00</t>
+    <t>Montag, den 18. November 2024 um 18:00 Uhr</t>
   </si>
   <si>
     <t>Leos Cafe Bar Ristorante 
@@ -693,7 +693,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -708,7 +708,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="44.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="37.5">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -725,7 +725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="44.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="37.5">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>

--- a/resources/data/aktuelles/Termine.xlsx
+++ b/resources/data/aktuelles/Termine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Datum</t>
   </si>
@@ -123,7 +123,7 @@
     <t xml:space="preserve">Eine Woche vor der Wahl ein lockeres Treffen zum  Austauschen, Diskutieren und Kennenlernen sein. Jeder, der Zeit und Lust hat, ist herzlich eingeladen zu kommen.   Interessierten die Möglichkeit in einer netten Runde, die SPD und Ihre Mitglieder in Albstadt kennen zu lernen. </t>
   </si>
   <si>
-    <t>Sonntag, den 9. Juni 2024 um xx:xx Uhr</t>
+    <t>Sonntag, den 9. Juni 2024</t>
   </si>
   <si>
     <t>Kommunal- und Europawahl</t>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Kommunalwahlparty der SPD Albstadt</t>
+  </si>
+  <si>
+    <t>tbd</t>
   </si>
   <si>
     <t xml:space="preserve">An diesem Abendtreffen kommen alle zusammen, um auf die vergangenen Wochen zurückzublicken, die ganz im Zeichen der Kommunalwahl standen. </t>
@@ -693,16 +696,18 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="49.5">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>35</v>
@@ -710,13 +715,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="37.5">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -727,16 +732,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="37.5">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
@@ -744,13 +749,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="37.5">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -761,16 +766,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="37.5">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>23</v>

--- a/resources/data/aktuelles/Termine.xlsx
+++ b/resources/data/aktuelles/Termine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Datum</t>
   </si>
@@ -112,17 +112,6 @@
 72458 Albstadt-Ebingen</t>
   </si>
   <si>
-    <t>Mittwoch, den 5. Juni 2024 um 18:00 Uhr</t>
-  </si>
-  <si>
-    <t>Schalksburg
-Balinger Straße 96  
-72459 Albstadt-Laufen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eine Woche vor der Wahl ein lockeres Treffen zum  Austauschen, Diskutieren und Kennenlernen sein. Jeder, der Zeit und Lust hat, ist herzlich eingeladen zu kommen.   Interessierten die Möglichkeit in einer netten Runde, die SPD und Ihre Mitglieder in Albstadt kennen zu lernen. </t>
-  </si>
-  <si>
     <t>Sonntag, den 9. Juni 2024</t>
   </si>
   <si>
@@ -138,13 +127,15 @@
     <t>/resources/images/news/rathaus.webp</t>
   </si>
   <si>
-    <t>Dienstag, den 11. Juni 2024 um 19:00 Uhr</t>
+    <t>Dienstag, den 10. Juni 2024 um 19:00 Uhr</t>
   </si>
   <si>
     <t>Kommunalwahlparty der SPD Albstadt</t>
   </si>
   <si>
-    <t>tbd</t>
+    <t>Hotel Alt Ebingen
+Langwatte 51
+72458 Albstadt-Ebingen</t>
   </si>
   <si>
     <t xml:space="preserve">An diesem Abendtreffen kommen alle zusammen, um auf die vergangenen Wochen zurückzublicken, die ganz im Zeichen der Kommunalwahl standen. </t>
@@ -532,7 +523,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -662,122 +653,105 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="37.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="49.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="37.5">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="37.5">
       <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="37.5">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="37.5">
       <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="37.5">
-      <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
